--- a/ocms/src/test/resources/TestData/DashboardColourConfig.xlsx
+++ b/ocms/src/test/resources/TestData/DashboardColourConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J10"/>
+  <oleSize ref="F1:M10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/DashboardColourConfig.xlsx
+++ b/ocms/src/test/resources/TestData/DashboardColourConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="F1:M10"/>
+  <oleSize ref="D1:K22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>Dashboard Name</t>
   </si>
@@ -52,24 +52,12 @@
     <t>#e57d7d</t>
   </si>
   <si>
-    <t>#000000</t>
-  </si>
-  <si>
     <t>Modify Reason</t>
   </si>
   <si>
     <t>Updation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Delete Reason</t>
-  </si>
-  <si>
-    <t>Updated Backgrond Color</t>
-  </si>
-  <si>
-    <t>#7dcde5</t>
-  </si>
-  <si>
     <t>Updated Start Range</t>
   </si>
   <si>
@@ -79,19 +67,75 @@
     <t>Updated Background Color</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>DeleteConfirmed</t>
+  </si>
+  <si>
+    <t>RealTime</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>#b95050</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>#ac2121</t>
+  </si>
+  <si>
+    <t>Please provide input for Dashboard Name, Column Name</t>
+  </si>
+  <si>
+    <t>ErrorMsg1</t>
+  </si>
+  <si>
+    <t>ErrorMsg2</t>
+  </si>
+  <si>
+    <t>ErrorMsg4</t>
+  </si>
+  <si>
+    <t>ErrorMsg3</t>
+  </si>
+  <si>
+    <t>Please provide input for Column Name</t>
+  </si>
+  <si>
+    <t>Please provide input for End Range</t>
+  </si>
+  <si>
+    <t>Please provide input for Start Range</t>
+  </si>
+  <si>
+    <t>Delete Reason</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT [DashboardName] as 'Dashboard Name'
+      ,[ColumnName] as 'Column Name'
+      ,[StartRange] as 'Start Range'
+      ,[EndRange] as 'End Range'
+      ,[BackgroundColor] as 'Background Color'
+      ,[FontColor] as 'Font Color'
+      ,[LastChangedBy] as 'Last Changed By'
+      ,[LastChangedOn] as 'Last Changed On'
+  FROM [OCM_DashboardColorCodeConfig]</t>
   </si>
 </sst>
 </file>
@@ -127,9 +171,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,9 +474,13 @@
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,25 +499,64 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -475,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,16 +603,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -539,19 +632,19 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -561,10 +654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,69 +675,53 @@
     <col min="26" max="26" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -653,12 +730,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/DashboardColourConfig.xlsx
+++ b/ocms/src/test/resources/TestData/DashboardColourConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="D1:K22"/>
+  <oleSize ref="A1:I10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/DashboardColourConfig.xlsx
+++ b/ocms/src/test/resources/TestData/DashboardColourConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3795" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I10"/>
+  <oleSize ref="A1:I24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,8 +134,8 @@
       ,[BackgroundColor] as 'Background Color'
       ,[FontColor] as 'Font Color'
       ,[LastChangedBy] as 'Last Changed By'
-      ,[LastChangedOn] as 'Last Changed On'
-  FROM [OCM_DashboardColorCodeConfig]</t>
+      ,Substring(LastChangedOn,11,18) as 'Last Changed On'
+  FROM [OCM_DashboardColorCodeConfig];</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -675,7 +675,7 @@
     <col min="26" max="26" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -733,7 +733,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>

--- a/ocms/src/test/resources/TestData/DashboardColourConfig.xlsx
+++ b/ocms/src/test/resources/TestData/DashboardColourConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I24"/>
+  <oleSize ref="A1:G18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -462,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -656,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/DashboardColourConfig.xlsx
+++ b/ocms/src/test/resources/TestData/DashboardColourConfig.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98E2338-A1F6-43D5-A168-77611886E30D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="6855"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
-    <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Queries" sheetId="4" r:id="rId4"/>
+    <sheet name="Search" sheetId="5" r:id="rId3"/>
+    <sheet name="Delete" sheetId="3" r:id="rId4"/>
+    <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>Dashboard Name</t>
   </si>
@@ -141,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,28 +465,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -544,17 +550,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -565,25 +571,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -653,29 +659,108 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6E0592-6192-44D9-B410-8877A46C5A2B}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="9" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="26" max="26" width="29.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="26" max="26" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -728,25 +813,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
